--- a/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2397615415679524</v>
+        <v>0.2292468603775025</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3141821950778125</v>
+        <v>0.3068128334615829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4129520506423136</v>
+        <v>0.4096793350654661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2050825354390594</v>
+        <v>0.2106658053489544</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1327516380779148</v>
+        <v>0.1229903792503293</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2397049831545519</v>
+        <v>0.2416019123416388</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2769563863129965</v>
+        <v>0.2843879982688564</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3309160616566853</v>
+        <v>0.3321276865352737</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3655782032194647</v>
+        <v>0.3654276012168056</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.765695273812089</v>
+        <v>0.7690085699477239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6944213057469103</v>
+        <v>0.7089888376130623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5661329506309527</v>
+        <v>0.5586036642451353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7432185593646471</v>
+        <v>0.7423347461152953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8034281176563218</v>
+        <v>0.820527604046833</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4077381331828377</v>
+        <v>0.4089795147818766</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6773677464309378</v>
+        <v>0.6906343522705144</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6689639789410741</v>
+        <v>0.6663955400332773</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4797217581624197</v>
+        <v>0.4818690112851742</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.2747390794089372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4209935366933708</v>
+        <v>0.4209935366933706</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2561357702963694</v>
@@ -764,7 +764,7 @@
         <v>0.6192966490221662</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3818532733213442</v>
+        <v>0.3818532733213443</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.4547325347845327</v>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3091583580755631</v>
+        <v>0.3091207414846711</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1225921606773129</v>
+        <v>0.1318749765602339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3330582001158996</v>
+        <v>0.3330268861388229</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.281401729458675</v>
+        <v>0.2800003135974339</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2421456597193131</v>
+        <v>0.2637077399337382</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1863524683451012</v>
+        <v>0.1815324355912965</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3394461644576141</v>
+        <v>0.3298896396218907</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.806270891607765</v>
+        <v>0.8096029710495515</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4876357906716883</v>
+        <v>0.4821271967594538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5208370984964612</v>
+        <v>0.5209443467885919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7050418048292798</v>
+        <v>0.7169648814474634</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4854429587227365</v>
+        <v>0.4780768622810746</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6770972800475801</v>
+        <v>0.6728494350709397</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.51110345581511</v>
+        <v>0.4991235426990321</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.482167731128876</v>
+        <v>0.4722698051126514</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.54660732746239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4238502335772504</v>
+        <v>0.4238502335772503</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5509309954509782</v>
@@ -873,7 +873,7 @@
         <v>0.5760558101167452</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.413949884652321</v>
+        <v>0.4139498846523209</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6941964235205033</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5387446310329282</v>
+        <v>0.5336281724260045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3557571892043726</v>
+        <v>0.3544637091267612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.338745178527239</v>
+        <v>0.3393180544574627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1830571523429727</v>
+        <v>0.2392647161163294</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1448857334685437</v>
+        <v>0.1495659353962042</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2900959552754356</v>
+        <v>0.2862104493032198</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5138829058205642</v>
+        <v>0.5124689178308187</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3924233841387857</v>
+        <v>0.3756198535947576</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3527749075149798</v>
+        <v>0.3400843284467781</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8979516597118097</v>
+        <v>0.8949140340478502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7415048736938238</v>
+        <v>0.732905016353568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.516767137178233</v>
+        <v>0.5271525851223402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8598761298432002</v>
+        <v>0.8959384745207941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.862710518280413</v>
+        <v>0.8635184455225868</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5414638892151112</v>
+        <v>0.5453465330722344</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8461890847275653</v>
+        <v>0.8438122090741008</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.717388527041056</v>
+        <v>0.7166394858406644</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4949282869184076</v>
+        <v>0.4958355287413282</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.5861882590637444</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3600808081327123</v>
+        <v>0.3600808081327122</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.6013965258036498</v>
@@ -991,7 +991,7 @@
         <v>0.6164626641979338</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.4037483600562546</v>
+        <v>0.4037483600562545</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3657464862190194</v>
+        <v>0.376989461268492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4832335871365392</v>
+        <v>0.4879830544520942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3594534276712071</v>
+        <v>0.3625035671559875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4277126173689151</v>
+        <v>0.4255108467770563</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3498796793710647</v>
+        <v>0.3700532365111927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2874987693037928</v>
+        <v>0.288202630237812</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4621244022838157</v>
+        <v>0.4490127872010558</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4955655132711172</v>
+        <v>0.5048840414324288</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3520070699658018</v>
+        <v>0.3562322194950725</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7231831160671871</v>
+        <v>0.7180452637527153</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7478710795916306</v>
+        <v>0.7668661985508497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4961788922768479</v>
+        <v>0.4925765642130843</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9269991578007896</v>
+        <v>0.926393067787614</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7888549490866398</v>
+        <v>0.7905587183919071</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4331675332457193</v>
+        <v>0.4322396202124056</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7313314572448898</v>
+        <v>0.747652133917497</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7120591624958149</v>
+        <v>0.7305669576446333</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4578194408570732</v>
+        <v>0.4550089415457667</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5351429123764798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.369172871258777</v>
+        <v>0.3691728712587771</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.7078544576792223</v>
@@ -1091,7 +1091,7 @@
         <v>0.5478768153274558</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3187380741618323</v>
+        <v>0.3187380741618321</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.7177686078863252</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3240729081098121</v>
+        <v>0.3699537980664295</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3392104248395189</v>
+        <v>0.3164195290594101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2676231216695257</v>
+        <v>0.2721566455624047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5061640978677751</v>
+        <v>0.4898922654822563</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3497748419240853</v>
+        <v>0.3329789172965055</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2613422674883183</v>
+        <v>0.2589427004193293</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5401129963576489</v>
+        <v>0.5586334271505626</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3904004857428585</v>
+        <v>0.4016487629515013</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2872918297244667</v>
+        <v>0.2830522647624912</v>
       </c>
     </row>
     <row r="18">
@@ -1149,28 +1149,28 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7266581240254179</v>
+        <v>0.6958753006878491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4700784241288239</v>
+        <v>0.4671197876290094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8648055668168542</v>
+        <v>0.8777459583883871</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7581158400849797</v>
+        <v>0.7292696635291259</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3845235516712983</v>
+        <v>0.3856928518887044</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8553451254201808</v>
+        <v>0.8741294323989827</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6767907572380035</v>
+        <v>0.6775319356975175</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3966420391615652</v>
+        <v>0.3925912757920311</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.5887468357734339</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.4372469939800285</v>
+        <v>0.4372469939800286</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.6707770251230134</v>
@@ -1205,7 +1205,7 @@
         <v>0.5887468357734339</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.4367414299769417</v>
+        <v>0.4367414299769416</v>
       </c>
     </row>
     <row r="20">
@@ -1218,25 +1218,25 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.1163030852194154</v>
+        <v>0.1135482451768414</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4804632718409672</v>
+        <v>0.4937288927319146</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4054866298806215</v>
+        <v>0.4192342503209319</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3719665996398732</v>
+        <v>0.3750898389500253</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4804632718409672</v>
+        <v>0.4937288927319146</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4054866298806215</v>
+        <v>0.4192342503209319</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3712408760981708</v>
+        <v>0.3729950994459836</v>
       </c>
     </row>
     <row r="21">
@@ -1249,25 +1249,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.8082077999925277</v>
+        <v>0.8044048953334266</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8345649643851274</v>
+        <v>0.8295015675780986</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7449994917195119</v>
+        <v>0.7477848259803332</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5032794002158092</v>
+        <v>0.5024521967010648</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8345649643851274</v>
+        <v>0.8295015675780986</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7449994917195119</v>
+        <v>0.7477848259803332</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5040243492391052</v>
+        <v>0.5072869756108762</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.517915093555665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4325523748108539</v>
+        <v>0.4325523748108538</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6147311947463027</v>
@@ -1297,7 +1297,7 @@
         <v>0.5668479280948931</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3689726662205486</v>
+        <v>0.3689726662205485</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6140792762333349</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3944009673101245</v>
+        <v>0.3949535742593667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5110484730640019</v>
+        <v>0.5027659445789593</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4696395259230024</v>
+        <v>0.463579759998791</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3370483956401954</v>
+        <v>0.3385064676920207</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5437281141536573</v>
+        <v>0.545545634658509</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4771439919718249</v>
+        <v>0.4732578293012119</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3771747838423833</v>
+        <v>0.3759084666588748</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4689878688955229</v>
+        <v>0.4706233511009205</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7102990419066635</v>
+        <v>0.7075038860143167</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6665569095019255</v>
+        <v>0.6653415545257679</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4003444396027871</v>
+        <v>0.4032164070222715</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6790691818630638</v>
+        <v>0.6838835669200186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6029464676410775</v>
+        <v>0.6010425081693067</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4290931146371754</v>
+        <v>0.4271474381895248</v>
       </c>
     </row>
     <row r="25">
@@ -1607,31 +1607,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4592</v>
+        <v>4391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9720</v>
+        <v>9492</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56300</v>
+        <v>55854</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2743</v>
+        <v>2817</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1472</v>
+        <v>1364</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19917</v>
+        <v>20074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9009</v>
+        <v>9251</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13907</v>
+        <v>13958</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>80216</v>
+        <v>80183</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14666</v>
+        <v>14730</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21483</v>
+        <v>21934</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>77184</v>
+        <v>76157</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9940</v>
+        <v>9928</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8909</v>
+        <v>9099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33878</v>
+        <v>33981</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22034</v>
+        <v>22466</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28114</v>
+        <v>28006</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>105262</v>
+        <v>105733</v>
       </c>
     </row>
     <row r="8">
@@ -1754,10 +1754,10 @@
         <v>5017</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3303</v>
+        <v>3554</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28634</v>
+        <v>28632</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1766,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15480</v>
+        <v>15403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5942</v>
+        <v>6471</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6012</v>
+        <v>5857</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47857</v>
+        <v>46509</v>
       </c>
     </row>
     <row r="11">
@@ -1786,31 +1786,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13085</v>
+        <v>13139</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13140</v>
+        <v>12992</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44778</v>
+        <v>44788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5857</v>
+        <v>5957</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>5316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26705</v>
+        <v>26299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16614</v>
+        <v>16510</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16490</v>
+        <v>16103</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>67978</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="12">
@@ -1895,31 +1895,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15779</v>
+        <v>15629</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10390</v>
+        <v>10352</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30974</v>
+        <v>31027</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1996</v>
+        <v>2608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1065</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10449</v>
+        <v>10309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20653</v>
+        <v>20596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14346</v>
+        <v>13732</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>44964</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="15">
@@ -1930,31 +1930,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26299</v>
+        <v>26210</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21656</v>
+        <v>21404</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47252</v>
+        <v>48202</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9374</v>
+        <v>9768</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6344</v>
+        <v>6350</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19504</v>
+        <v>19643</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34008</v>
+        <v>33913</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26226</v>
+        <v>26199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63083</v>
+        <v>63198</v>
       </c>
     </row>
     <row r="16">
@@ -2039,31 +2039,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13249</v>
+        <v>13656</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23850</v>
+        <v>24085</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>62506</v>
+        <v>63037</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6196</v>
+        <v>6164</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8504</v>
+        <v>8994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26887</v>
+        <v>26953</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23435</v>
+        <v>22770</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36504</v>
+        <v>37190</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94132</v>
+        <v>95261</v>
       </c>
     </row>
     <row r="19">
@@ -2074,31 +2074,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26197</v>
+        <v>26011</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36912</v>
+        <v>37849</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86282</v>
+        <v>85656</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13429</v>
+        <v>13420</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19173</v>
+        <v>19215</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40511</v>
+        <v>40424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37087</v>
+        <v>37914</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52451</v>
+        <v>53814</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122427</v>
+        <v>121676</v>
       </c>
     </row>
     <row r="20">
@@ -2183,31 +2183,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2745</v>
+        <v>3134</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7884</v>
+        <v>7354</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19531</v>
+        <v>19861</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13631</v>
+        <v>13193</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9588</v>
+        <v>9127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31375</v>
+        <v>31087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19120</v>
+        <v>19776</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19775</v>
+        <v>20344</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>55456</v>
+        <v>54638</v>
       </c>
     </row>
     <row r="23">
@@ -2221,28 +2221,28 @@
         <v>8470</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16888</v>
+        <v>16173</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>34305</v>
+        <v>34089</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23289</v>
+        <v>23638</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20781</v>
+        <v>19990</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46163</v>
+        <v>46304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30279</v>
+        <v>30944</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34281</v>
+        <v>34318</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>76564</v>
+        <v>75782</v>
       </c>
     </row>
     <row r="24">
@@ -2325,25 +2325,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15355</v>
+        <v>15779</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15993</v>
+        <v>16535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49183</v>
+        <v>49596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15355</v>
+        <v>15779</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15993</v>
+        <v>16535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>50516</v>
+        <v>50755</v>
       </c>
     </row>
     <row r="27">
@@ -2356,25 +2356,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>3112</v>
+        <v>3097</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26672</v>
+        <v>26510</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29384</v>
+        <v>29494</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>66546</v>
+        <v>66436</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>26672</v>
+        <v>26510</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29384</v>
+        <v>29494</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>68585</v>
+        <v>69029</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>222626</v>
+        <v>222938</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>54150</v>
+        <v>53273</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>53969</v>
+        <v>53273</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>175237</v>
+        <v>175995</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>117078</v>
+        <v>117470</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>131025</v>
+        <v>129958</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>409002</v>
+        <v>407629</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>264728</v>
+        <v>265651</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>75263</v>
+        <v>74966</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>76598</v>
+        <v>76458</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>208146</v>
+        <v>209639</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>146221</v>
+        <v>147257</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>165570</v>
+        <v>165047</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>465302</v>
+        <v>463192</v>
       </c>
     </row>
     <row r="32">
